--- a/template.xlsx
+++ b/template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Age Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Medical Card Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,6 +446,11 @@
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Image Filename</t>
         </is>

--- a/template.xlsx
+++ b/template.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,23 +434,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Sex</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Card Kutr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Address/Street ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ketema</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Image Filename</t>
         </is>

--- a/template.xlsx
+++ b/template.xlsx
@@ -435,20 +435,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Patient Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,22 +463,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Card Kutr</t>
+          <t>Card Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Telephone</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Address/Street ID</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ketema</t>
+          <t>Kebele</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">

--- a/template.xlsx
+++ b/template.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,11 +438,10 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,30 +462,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Card Number</t>
+          <t>Telephone</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Kebele</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Kebele</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Image Filename</t>
         </is>

--- a/template.xlsx
+++ b/template.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,10 +438,9 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,20 +466,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Kebele</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Kebele</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Image Filename</t>
         </is>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,46 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Medical Card Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Medical Card Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Kebele</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Image file name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDEBF7"/>
-        <bgColor rgb="00DDEBF7"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,83 +85,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,75 +387,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Patient Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Telephone</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Kebele</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Image Filename</t>
-        </is>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
